--- a/TestData/Catalog/Chat_Api.xlsx
+++ b/TestData/Catalog/Chat_Api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20381"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naveen.gl\eclipse-workspace\onmobile\TestData\Catalog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naveen.gl\Desktop\onmobile\TestData\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0997FF22-2ADC-4C7C-A4F6-4C522775E570}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38B9F00-3108-414D-9917-CF03F5B23BCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" firstSheet="4" activeTab="5" xr2:uid="{30CBCEB6-CB30-40EA-BAF3-0ABAB33355DB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" firstSheet="16" activeTab="17" xr2:uid="{30CBCEB6-CB30-40EA-BAF3-0ABAB33355DB}"/>
   </bookViews>
   <sheets>
     <sheet name="CREATE_CHAT_POSITIVE_SHEET" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,18 @@
     <sheet name="GET_ALL_CHART_NEGATIVE_SHEET" sheetId="4" r:id="rId4"/>
     <sheet name="GET_CHART_BY_ID_POSITIVE_SHEET" sheetId="5" r:id="rId5"/>
     <sheet name="GET_CHART_BY_ID_NEGATIVE_SHEET" sheetId="6" r:id="rId6"/>
+    <sheet name="DELETE_CHART_BY_ID_POSITIVE_SHE" sheetId="7" r:id="rId7"/>
+    <sheet name="CREATE_CHART_COLLECTION_POSTIVE" sheetId="8" r:id="rId8"/>
+    <sheet name="DELETE_CHART_COLLECTION_POSTIVE" sheetId="10" r:id="rId9"/>
+    <sheet name="CREATE_CHART_COLLECTION_NEGATIV" sheetId="9" r:id="rId10"/>
+    <sheet name="GET_CHART_COLLECTION_BY_ID_POSI" sheetId="11" r:id="rId11"/>
+    <sheet name="GET_CHART_COLLECTION_BY_ID_NEGA" sheetId="12" r:id="rId12"/>
+    <sheet name="GET_ALL_COLLECTION_CHART_POSITI" sheetId="13" r:id="rId13"/>
+    <sheet name="GET_ALL_COLLECTION_CHART_NEGATI" sheetId="14" r:id="rId14"/>
+    <sheet name="SEARCH_CHART_COLLECTION_NAME_PO" sheetId="15" r:id="rId15"/>
+    <sheet name="SEARCH_CHART_COLLECTION_NAME_NE" sheetId="16" r:id="rId16"/>
+    <sheet name="SEARCH_CHART_NAME_POSITIVE_SHEE" sheetId="17" r:id="rId17"/>
+    <sheet name="SEARCH_CHART_NAME_NEGATIVE_SHEE" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="60">
   <si>
     <t>Test case</t>
   </si>
@@ -126,6 +138,90 @@
   </si>
   <si>
     <t>nmn</t>
+  </si>
+  <si>
+    <t>Delete Chart BY ID</t>
+  </si>
+  <si>
+    <t>Create Chart Collection by  chart collection name</t>
+  </si>
+  <si>
+    <t>chart_collection_name</t>
+  </si>
+  <si>
+    <t>RIP_PUNITH</t>
+  </si>
+  <si>
+    <t>create Chart collection by invalid store id</t>
+  </si>
+  <si>
+    <t>create Chart collection with blank collection name</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Delete Chart Collection By Chart Collection ID</t>
+  </si>
+  <si>
+    <t>chart_collection_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Chart Collection By ID positive sheet </t>
+  </si>
+  <si>
+    <t>Get Chart Collection by invalid store ID</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Chart Collection by invalid ChartCollection ID </t>
+  </si>
+  <si>
+    <t>NAVEEN</t>
+  </si>
+  <si>
+    <t>Get Chart Collection By Invalid Query param i.e response key</t>
+  </si>
+  <si>
+    <t>1abcs9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get All collection chart Details </t>
+  </si>
+  <si>
+    <t>Get All chart collection by invalid Store_id</t>
+  </si>
+  <si>
+    <t>Get All chart collection by invalid Query Param</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>searchItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search By Chat collection with valid Search Name </t>
+  </si>
+  <si>
+    <t>Search By Chart Collection Name with invalid store_id</t>
+  </si>
+  <si>
+    <t>Search By Chart Collection Name with invalid collection Name</t>
+  </si>
+  <si>
+    <t>PAVAGADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Chart by chart name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Chart by chart name With invalid store id </t>
+  </si>
+  <si>
+    <t>Search Chart by chart name  with invalid search name</t>
   </si>
 </sst>
 </file>
@@ -496,7 +592,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +633,7 @@
         <v>201</v>
       </c>
       <c r="C2">
-        <v>168</v>
+        <v>328</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -552,6 +648,579 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A37AC8-C5FC-482A-AA00-473D4923D800}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>404</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5010909-EE47-420C-A320-4E068E30A787}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2" s="2">
+        <v>168</v>
+      </c>
+      <c r="D2" s="2">
+        <v>320</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D205F645-0CAA-42E3-873B-F21C0B12424B}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>404</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2">
+        <v>320</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>168</v>
+      </c>
+      <c r="E3">
+        <v>123290909</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>404</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>168</v>
+      </c>
+      <c r="E4">
+        <v>320</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>404</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DB2ADB-D0F2-4501-B9E1-D895919B2EA1}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>168</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F537A89A-480D-4C7F-80F5-4D24D709E930}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>404</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>404</v>
+      </c>
+      <c r="C3">
+        <v>168</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F1908C-C047-46FD-87DA-739A94E15C47}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>168</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2033D8CB-FC1F-4897-A9D5-C19D87CEA560}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>404</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3">
+        <v>168</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD1CA07-4E26-4644-9CD4-C02C740D189A}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EA23CD-04EB-480D-A619-DD067E0461DF}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>404</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>168</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -772,7 +1441,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +1474,7 @@
         <v>200</v>
       </c>
       <c r="C2">
-        <v>168</v>
+        <v>390</v>
       </c>
       <c r="D2" s="2">
         <v>331041</v>
@@ -823,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEE29C8-E979-4E46-8780-D42C705D3769}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,4 +1575,152 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5941C62A-C080-4C47-9FC2-925824060977}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE4B303-AFDA-419F-A5C4-120141A1AFC9}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>201</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3C43CF-BA61-44AF-BA54-549EB9DCE59A}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>343</v>
+      </c>
+      <c r="D2">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>